--- a/observatory/config/template-report-web.xlsx
+++ b/observatory/config/template-report-web.xlsx
@@ -1105,7 +1105,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
@@ -1165,7 +1165,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1173,31 +1173,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="7" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D2" s="8" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E2" s="9" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F2" s="9" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G2" s="9" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H2" s="9" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I2" s="10" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J2" s="5"/>
@@ -1218,7 +1218,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1226,31 +1226,31 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D3" s="8" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E3" s="9" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F3" s="9" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G3" s="9" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H3" s="9" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I3" s="10" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J3" s="5"/>
@@ -1271,7 +1271,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1279,31 +1279,31 @@
         <v>14</v>
       </c>
       <c r="C4" s="7" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D4" s="8" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E4" s="9" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F4" s="9" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G4" s="9" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H4" s="9" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I4" s="10" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J4" s="5"/>
@@ -1324,7 +1324,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1332,31 +1332,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D5" s="8" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E5" s="9" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F5" s="9" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G5" s="9" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H5" s="9" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I5" s="10" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J5" s="5"/>
@@ -1377,7 +1377,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -1385,31 +1385,31 @@
         <v>18</v>
       </c>
       <c r="C6" s="7" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D6" s="8" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E6" s="9" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F6" s="9" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G6" s="9" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H6" s="9" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I6" s="10" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J6" s="5"/>
@@ -1430,7 +1430,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1438,31 +1438,31 @@
         <v>20</v>
       </c>
       <c r="C7" s="7" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D7" s="8" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E7" s="9" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F7" s="9" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G7" s="9" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H7" s="9" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I7" s="10" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J7" s="5"/>
@@ -1483,7 +1483,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -1491,31 +1491,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="7" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D8" s="8" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E8" s="9" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F8" s="9" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G8" s="9" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H8" s="9" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I8" s="10" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J8" s="5"/>
@@ -1536,7 +1536,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -1544,31 +1544,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="7" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D9" s="8" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E9" s="9" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F9" s="9" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G9" s="9" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H9" s="9" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I9" s="10" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J9" s="5"/>
@@ -1589,7 +1589,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -1597,31 +1597,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="7" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D10" s="8" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E10" s="9" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F10" s="9" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G10" s="9" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H10" s="9" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I10" s="10" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J10" s="5"/>
@@ -1642,7 +1642,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -1650,31 +1650,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="7" t="e">
-        <f aca="true">INDIRECT(B11&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B11&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D11" s="8" t="e">
-        <f aca="true">INDIRECT(B11&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B11&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E11" s="9" t="e">
-        <f aca="true">INDIRECT(B11&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B11&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F11" s="9" t="e">
-        <f aca="true">INDIRECT(B11&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B11&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G11" s="9" t="e">
-        <f aca="true">INDIRECT(B11&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B11&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H11" s="9" t="e">
-        <f aca="true">INDIRECT(B11&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B11&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I11" s="10" t="e">
-        <f aca="true">INDIRECT(B11&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B11&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J11" s="5"/>
@@ -1695,7 +1695,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1703,31 +1703,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="7" t="e">
-        <f aca="true">INDIRECT(B12&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B12&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D12" s="8" t="e">
-        <f aca="true">INDIRECT(B12&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B12&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E12" s="9" t="e">
-        <f aca="true">INDIRECT(B12&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B12&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F12" s="9" t="e">
-        <f aca="true">INDIRECT(B12&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B12&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G12" s="9" t="e">
-        <f aca="true">INDIRECT(B12&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B12&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H12" s="9" t="e">
-        <f aca="true">INDIRECT(B12&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B12&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I12" s="10" t="e">
-        <f aca="true">INDIRECT(B12&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B12&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J12" s="5"/>
@@ -1748,7 +1748,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -1756,31 +1756,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="7" t="e">
-        <f aca="true">INDIRECT(B13&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B13&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D13" s="8" t="e">
-        <f aca="true">INDIRECT(B13&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B13&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E13" s="9" t="e">
-        <f aca="true">INDIRECT(B13&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B13&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F13" s="9" t="e">
-        <f aca="true">INDIRECT(B13&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B13&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G13" s="9" t="e">
-        <f aca="true">INDIRECT(B13&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B13&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H13" s="9" t="e">
-        <f aca="true">INDIRECT(B13&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B13&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I13" s="10" t="e">
-        <f aca="true">INDIRECT(B13&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B13&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J13" s="5"/>
@@ -1801,7 +1801,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -1809,31 +1809,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="7" t="e">
-        <f aca="true">INDIRECT(B14&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B14&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D14" s="8" t="e">
-        <f aca="true">INDIRECT(B14&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B14&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E14" s="9" t="e">
-        <f aca="true">INDIRECT(B14&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B14&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F14" s="9" t="e">
-        <f aca="true">INDIRECT(B14&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B14&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G14" s="9" t="e">
-        <f aca="true">INDIRECT(B14&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B14&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H14" s="9" t="e">
-        <f aca="true">INDIRECT(B14&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B14&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I14" s="10" t="e">
-        <f aca="true">INDIRECT(B14&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B14&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J14" s="5"/>
@@ -1854,7 +1854,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
@@ -1862,31 +1862,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="7" t="e">
-        <f aca="true">INDIRECT(B15&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B15&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D15" s="8" t="e">
-        <f aca="true">INDIRECT(B15&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B15&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E15" s="9" t="e">
-        <f aca="true">INDIRECT(B15&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B15&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F15" s="9" t="e">
-        <f aca="true">INDIRECT(B15&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B15&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G15" s="9" t="e">
-        <f aca="true">INDIRECT(B15&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B15&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H15" s="9" t="e">
-        <f aca="true">INDIRECT(B15&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B15&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I15" s="10" t="e">
-        <f aca="true">INDIRECT(B15&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B15&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J15" s="5"/>
@@ -1907,7 +1907,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
@@ -1915,31 +1915,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="7" t="e">
-        <f aca="true">INDIRECT(B16&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B16&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D16" s="8" t="e">
-        <f aca="true">INDIRECT(B16&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B16&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E16" s="9" t="e">
-        <f aca="true">INDIRECT(B16&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B16&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F16" s="9" t="e">
-        <f aca="true">INDIRECT(B16&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B16&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G16" s="9" t="e">
-        <f aca="true">INDIRECT(B16&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B16&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H16" s="9" t="e">
-        <f aca="true">INDIRECT(B16&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B16&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I16" s="10" t="e">
-        <f aca="true">INDIRECT(B16&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B16&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J16" s="5"/>
@@ -1960,7 +1960,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
@@ -1968,31 +1968,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="7" t="e">
-        <f aca="true">INDIRECT(B17&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B17&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D17" s="8" t="e">
-        <f aca="true">INDIRECT(B17&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B17&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E17" s="9" t="e">
-        <f aca="true">INDIRECT(B17&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B17&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F17" s="9" t="e">
-        <f aca="true">INDIRECT(B17&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B17&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G17" s="9" t="e">
-        <f aca="true">INDIRECT(B17&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B17&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H17" s="9" t="e">
-        <f aca="true">INDIRECT(B17&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B17&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I17" s="10" t="e">
-        <f aca="true">INDIRECT(B17&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B17&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J17" s="5"/>
@@ -2013,7 +2013,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
@@ -2021,31 +2021,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="7" t="e">
-        <f aca="true">INDIRECT(B18&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B18&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D18" s="8" t="e">
-        <f aca="true">INDIRECT(B18&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B18&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E18" s="9" t="e">
-        <f aca="true">INDIRECT(B18&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B18&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F18" s="9" t="e">
-        <f aca="true">INDIRECT(B18&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B18&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G18" s="9" t="e">
-        <f aca="true">INDIRECT(B18&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B18&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H18" s="9" t="e">
-        <f aca="true">INDIRECT(B18&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B18&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I18" s="10" t="e">
-        <f aca="true">INDIRECT(B18&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B18&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J18" s="5"/>
@@ -2066,7 +2066,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
@@ -2074,31 +2074,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="7" t="e">
-        <f aca="true">INDIRECT(B19&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B19&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D19" s="8" t="e">
-        <f aca="true">INDIRECT(B19&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B19&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E19" s="9" t="e">
-        <f aca="true">INDIRECT(B19&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B19&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F19" s="9" t="e">
-        <f aca="true">INDIRECT(B19&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B19&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G19" s="9" t="e">
-        <f aca="true">INDIRECT(B19&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B19&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H19" s="9" t="e">
-        <f aca="true">INDIRECT(B19&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B19&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I19" s="10" t="e">
-        <f aca="true">INDIRECT(B19&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B19&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J19" s="5"/>
@@ -2119,7 +2119,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
@@ -2127,31 +2127,31 @@
         <v>46</v>
       </c>
       <c r="C20" s="7" t="e">
-        <f aca="true">INDIRECT(B20&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B20&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D20" s="8" t="e">
-        <f aca="true">INDIRECT(B20&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B20&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E20" s="9" t="e">
-        <f aca="true">INDIRECT(B20&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B20&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F20" s="9" t="e">
-        <f aca="true">INDIRECT(B20&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B20&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G20" s="9" t="e">
-        <f aca="true">INDIRECT(B20&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B20&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H20" s="9" t="e">
-        <f aca="true">INDIRECT(B20&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B20&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I20" s="10" t="e">
-        <f aca="true">INDIRECT(B20&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B20&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J20" s="5"/>
@@ -2180,31 +2180,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="7" t="e">
-        <f aca="true">INDIRECT(B21&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B21&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D21" s="8" t="e">
-        <f aca="true">INDIRECT(B21&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B21&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E21" s="9" t="e">
-        <f aca="true">INDIRECT(B21&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B21&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F21" s="9" t="e">
-        <f aca="true">INDIRECT(B21&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B21&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G21" s="9" t="e">
-        <f aca="true">INDIRECT(B21&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B21&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H21" s="9" t="e">
-        <f aca="true">INDIRECT(B21&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B21&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I21" s="10" t="e">
-        <f aca="true">INDIRECT(B21&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B21&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J21" s="5"/>
@@ -2233,31 +2233,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="7" t="e">
-        <f aca="true">INDIRECT(B22&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B22&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D22" s="8" t="e">
-        <f aca="true">INDIRECT(B22&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B22&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E22" s="9" t="e">
-        <f aca="true">INDIRECT(B22&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B22&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F22" s="9" t="e">
-        <f aca="true">INDIRECT(B22&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B22&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G22" s="9" t="e">
-        <f aca="true">INDIRECT(B22&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B22&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H22" s="9" t="e">
-        <f aca="true">INDIRECT(B22&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B22&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I22" s="10" t="e">
-        <f aca="true">INDIRECT(B22&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B22&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J22" s="5"/>
@@ -2286,31 +2286,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="7" t="e">
-        <f aca="true">INDIRECT(B23&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B23&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D23" s="8" t="e">
-        <f aca="true">INDIRECT(B23&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B23&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E23" s="9" t="e">
-        <f aca="true">INDIRECT(B23&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B23&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F23" s="9" t="e">
-        <f aca="true">INDIRECT(B23&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B23&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G23" s="9" t="e">
-        <f aca="true">INDIRECT(B23&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B23&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H23" s="9" t="e">
-        <f aca="true">INDIRECT(B23&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B23&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I23" s="10" t="e">
-        <f aca="true">INDIRECT(B23&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B23&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J23" s="5"/>
@@ -2339,31 +2339,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="7" t="e">
-        <f aca="true">INDIRECT(B24&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B24&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D24" s="8" t="e">
-        <f aca="true">INDIRECT(B24&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B24&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E24" s="9" t="e">
-        <f aca="true">INDIRECT(B24&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B24&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F24" s="9" t="e">
-        <f aca="true">INDIRECT(B24&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B24&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G24" s="9" t="e">
-        <f aca="true">INDIRECT(B24&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B24&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H24" s="9" t="e">
-        <f aca="true">INDIRECT(B24&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B24&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I24" s="10" t="e">
-        <f aca="true">INDIRECT(B24&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B24&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J24" s="5"/>
@@ -2392,31 +2392,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="7" t="e">
-        <f aca="true">INDIRECT(B25&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B25&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D25" s="8" t="e">
-        <f aca="true">INDIRECT(B25&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B25&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E25" s="9" t="e">
-        <f aca="true">INDIRECT(B25&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B25&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F25" s="9" t="e">
-        <f aca="true">INDIRECT(B25&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B25&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G25" s="9" t="e">
-        <f aca="true">INDIRECT(B25&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B25&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H25" s="9" t="e">
-        <f aca="true">INDIRECT(B25&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B25&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I25" s="10" t="e">
-        <f aca="true">INDIRECT(B25&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B25&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J25" s="5"/>
@@ -2445,31 +2445,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="7" t="e">
-        <f aca="true">INDIRECT(B26&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B26&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D26" s="8" t="e">
-        <f aca="true">INDIRECT(B26&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B26&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E26" s="9" t="e">
-        <f aca="true">INDIRECT(B26&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B26&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F26" s="9" t="e">
-        <f aca="true">INDIRECT(B26&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B26&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G26" s="9" t="e">
-        <f aca="true">INDIRECT(B26&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B26&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H26" s="9" t="e">
-        <f aca="true">INDIRECT(B26&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B26&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I26" s="10" t="e">
-        <f aca="true">INDIRECT(B26&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B26&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J26" s="5"/>
@@ -2498,31 +2498,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="7" t="e">
-        <f aca="true">INDIRECT(B27&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B27&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D27" s="8" t="e">
-        <f aca="true">INDIRECT(B27&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B27&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E27" s="9" t="e">
-        <f aca="true">INDIRECT(B27&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B27&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F27" s="9" t="e">
-        <f aca="true">INDIRECT(B27&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B27&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G27" s="9" t="e">
-        <f aca="true">INDIRECT(B27&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B27&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H27" s="9" t="e">
-        <f aca="true">INDIRECT(B27&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B27&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I27" s="10" t="e">
-        <f aca="true">INDIRECT(B27&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B27&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J27" s="5"/>
@@ -2551,31 +2551,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="7" t="e">
-        <f aca="true">INDIRECT(B28&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B28&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D28" s="8" t="e">
-        <f aca="true">INDIRECT(B28&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B28&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E28" s="9" t="e">
-        <f aca="true">INDIRECT(B28&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B28&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F28" s="9" t="e">
-        <f aca="true">INDIRECT(B28&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B28&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G28" s="9" t="e">
-        <f aca="true">INDIRECT(B28&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B28&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H28" s="9" t="e">
-        <f aca="true">INDIRECT(B28&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B28&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I28" s="10" t="e">
-        <f aca="true">INDIRECT(B28&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B28&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J28" s="5"/>
@@ -2604,31 +2604,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="7" t="e">
-        <f aca="true">INDIRECT(B29&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B29&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D29" s="8" t="e">
-        <f aca="true">INDIRECT(B29&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B29&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E29" s="9" t="e">
-        <f aca="true">INDIRECT(B29&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B29&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F29" s="9" t="e">
-        <f aca="true">INDIRECT(B29&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B29&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G29" s="9" t="e">
-        <f aca="true">INDIRECT(B29&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B29&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H29" s="9" t="e">
-        <f aca="true">INDIRECT(B29&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B29&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I29" s="10" t="e">
-        <f aca="true">INDIRECT(B29&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B29&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J29" s="5"/>
@@ -2657,31 +2657,31 @@
         <v>66</v>
       </c>
       <c r="C30" s="7" t="e">
-        <f aca="true">INDIRECT(B30&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B30&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D30" s="8" t="e">
-        <f aca="true">INDIRECT(B30&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B30&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E30" s="9" t="e">
-        <f aca="true">INDIRECT(B30&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B30&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F30" s="9" t="e">
-        <f aca="true">INDIRECT(B30&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B30&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G30" s="9" t="e">
-        <f aca="true">INDIRECT(B30&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B30&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H30" s="9" t="e">
-        <f aca="true">INDIRECT(B30&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B30&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I30" s="10" t="e">
-        <f aca="true">INDIRECT(B30&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B30&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J30" s="5"/>
@@ -2710,31 +2710,31 @@
         <v>68</v>
       </c>
       <c r="C31" s="7" t="e">
-        <f aca="true">INDIRECT(B31&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B31&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D31" s="8" t="e">
-        <f aca="true">INDIRECT(B31&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B31&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E31" s="9" t="e">
-        <f aca="true">INDIRECT(B31&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B31&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F31" s="9" t="e">
-        <f aca="true">INDIRECT(B31&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B31&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G31" s="9" t="e">
-        <f aca="true">INDIRECT(B31&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B31&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H31" s="9" t="e">
-        <f aca="true">INDIRECT(B31&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B31&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I31" s="10" t="e">
-        <f aca="true">INDIRECT(B31&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B31&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J31" s="5"/>
@@ -2763,31 +2763,31 @@
         <v>70</v>
       </c>
       <c r="C32" s="7" t="e">
-        <f aca="true">INDIRECT(B32&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B32&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D32" s="8" t="e">
-        <f aca="true">INDIRECT(B32&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B32&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E32" s="9" t="e">
-        <f aca="true">INDIRECT(B32&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B32&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F32" s="9" t="e">
-        <f aca="true">INDIRECT(B32&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B32&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G32" s="9" t="e">
-        <f aca="true">INDIRECT(B32&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B32&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H32" s="9" t="e">
-        <f aca="true">INDIRECT(B32&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B32&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I32" s="10" t="e">
-        <f aca="true">INDIRECT(B32&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B32&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J32" s="5"/>
@@ -2816,31 +2816,31 @@
         <v>72</v>
       </c>
       <c r="C33" s="7" t="e">
-        <f aca="true">INDIRECT(B33&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B33&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D33" s="8" t="e">
-        <f aca="true">INDIRECT(B33&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B33&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E33" s="9" t="e">
-        <f aca="true">INDIRECT(B33&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B33&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F33" s="9" t="e">
-        <f aca="true">INDIRECT(B33&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B33&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G33" s="9" t="e">
-        <f aca="true">INDIRECT(B33&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B33&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H33" s="9" t="e">
-        <f aca="true">INDIRECT(B33&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B33&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I33" s="10" t="e">
-        <f aca="true">INDIRECT(B33&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B33&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J33" s="5"/>
@@ -9307,7 +9307,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="13.88"/>
@@ -16171,7 +16171,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
@@ -16232,7 +16232,7 @@
       <c r="Z1" s="31"/>
       <c r="AA1" s="31"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -16240,35 +16240,35 @@
         <v>10</v>
       </c>
       <c r="C2" s="7" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D2" s="8" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E2" s="32" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F2" s="32" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G2" s="32" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H2" s="32" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I2" s="33" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -16276,35 +16276,35 @@
         <v>14</v>
       </c>
       <c r="C3" s="7" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D3" s="8" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E3" s="32" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F3" s="32" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G3" s="32" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H3" s="32" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I3" s="33" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -16312,35 +16312,35 @@
         <v>16</v>
       </c>
       <c r="C4" s="7" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D4" s="8" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E4" s="32" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F4" s="32" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G4" s="32" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H4" s="32" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I4" s="33" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -16348,35 +16348,35 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D5" s="8" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E5" s="32" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F5" s="32" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G5" s="32" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H5" s="32" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I5" s="33" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -16384,35 +16384,35 @@
         <v>20</v>
       </c>
       <c r="C6" s="7" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D6" s="8" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E6" s="32" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F6" s="32" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G6" s="32" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H6" s="32" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I6" s="33" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -16420,35 +16420,35 @@
         <v>22</v>
       </c>
       <c r="C7" s="7" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D7" s="8" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E7" s="32" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F7" s="32" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G7" s="32" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H7" s="32" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I7" s="33" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
@@ -16456,35 +16456,35 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D8" s="8" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E8" s="32" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F8" s="32" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G8" s="32" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H8" s="32" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I8" s="33" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -16492,35 +16492,35 @@
         <v>28</v>
       </c>
       <c r="C9" s="7" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D9" s="8" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E9" s="32" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F9" s="32" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G9" s="32" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H9" s="32" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I9" s="33" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
@@ -16528,31 +16528,31 @@
         <v>32</v>
       </c>
       <c r="C10" s="7" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D10" s="8" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E10" s="32" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F10" s="32" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$o$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$o$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G10" s="32" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$r$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$r$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H10" s="32" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$v$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$v$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I10" s="33" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$as$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$as$13")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -19743,33 +19743,18 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="H2:H10">
     <cfRule type="cellIs" priority="12" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="H2:H10">
     <cfRule type="cellIs" priority="13" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="H2:H10">
     <cfRule type="cellIs" priority="14" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H10">
-    <cfRule type="cellIs" priority="15" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>0.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H10">
-    <cfRule type="cellIs" priority="16" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>0.3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H10">
-    <cfRule type="cellIs" priority="17" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19791,10 +19776,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="16.5"/>
@@ -26187,7 +26172,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30"/>
